--- a/Code/Results/Cases/Case_6_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_9/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019247391367284</v>
+        <v>1.008464777648413</v>
       </c>
       <c r="D2">
-        <v>1.036076575331796</v>
+        <v>1.028041415998302</v>
       </c>
       <c r="E2">
-        <v>1.031804232820559</v>
+        <v>1.022857799168043</v>
       </c>
       <c r="F2">
-        <v>1.040697604333552</v>
+        <v>1.031789497474229</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049167771521364</v>
+        <v>1.046206109193874</v>
       </c>
       <c r="J2">
-        <v>1.040867270868779</v>
+        <v>1.030395223099975</v>
       </c>
       <c r="K2">
-        <v>1.047055184567767</v>
+        <v>1.039123437759273</v>
       </c>
       <c r="L2">
-        <v>1.042837576333587</v>
+        <v>1.034007614837464</v>
       </c>
       <c r="M2">
-        <v>1.051617643446152</v>
+        <v>1.042823030747171</v>
       </c>
       <c r="N2">
-        <v>1.042345421782557</v>
+        <v>1.031858502504766</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026123459828309</v>
+        <v>1.01313484920736</v>
       </c>
       <c r="D3">
-        <v>1.041410820312823</v>
+        <v>1.031561945204157</v>
       </c>
       <c r="E3">
-        <v>1.037632183494774</v>
+        <v>1.026716723775419</v>
       </c>
       <c r="F3">
-        <v>1.046755620453625</v>
+        <v>1.035888912941071</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050983686812474</v>
+        <v>1.047233762603281</v>
       </c>
       <c r="J3">
-        <v>1.045926448737866</v>
+        <v>1.033273738623813</v>
       </c>
       <c r="K3">
-        <v>1.051539902372346</v>
+        <v>1.041806304437531</v>
       </c>
       <c r="L3">
-        <v>1.047805172978904</v>
+        <v>1.037018800971631</v>
       </c>
       <c r="M3">
-        <v>1.056823264424184</v>
+        <v>1.046082292676605</v>
       </c>
       <c r="N3">
-        <v>1.047411784264515</v>
+        <v>1.034741105850813</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030453839869189</v>
+        <v>1.016096460418338</v>
       </c>
       <c r="D4">
-        <v>1.044772156606097</v>
+        <v>1.033796546399888</v>
       </c>
       <c r="E4">
-        <v>1.041308301971775</v>
+        <v>1.029169750487563</v>
       </c>
       <c r="F4">
-        <v>1.050576693201302</v>
+        <v>1.038494099297533</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052115088808237</v>
+        <v>1.047874704536463</v>
       </c>
       <c r="J4">
-        <v>1.049109360125486</v>
+        <v>1.035097190897319</v>
       </c>
       <c r="K4">
-        <v>1.054358659142673</v>
+        <v>1.043503495233119</v>
       </c>
       <c r="L4">
-        <v>1.050932480179605</v>
+        <v>1.038928421506808</v>
       </c>
       <c r="M4">
-        <v>1.060100743206623</v>
+        <v>1.048149114345842</v>
       </c>
       <c r="N4">
-        <v>1.050599215751389</v>
+        <v>1.0365671476357</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032247312717361</v>
+        <v>1.017327619841824</v>
       </c>
       <c r="D5">
-        <v>1.046164662414823</v>
+        <v>1.034725901793858</v>
       </c>
       <c r="E5">
-        <v>1.042832121199363</v>
+        <v>1.030190837624754</v>
       </c>
       <c r="F5">
-        <v>1.052160557242897</v>
+        <v>1.039578352844484</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052580680641744</v>
+        <v>1.048138522418369</v>
       </c>
       <c r="J5">
-        <v>1.050426759342914</v>
+        <v>1.035854691028618</v>
       </c>
       <c r="K5">
-        <v>1.05552465425772</v>
+        <v>1.044207970281607</v>
       </c>
       <c r="L5">
-        <v>1.052227340225415</v>
+        <v>1.039722226317642</v>
       </c>
       <c r="M5">
-        <v>1.061457854630995</v>
+        <v>1.049008233217391</v>
       </c>
       <c r="N5">
-        <v>1.051918485826814</v>
+        <v>1.037325723504072</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032546900332784</v>
+        <v>1.017533536322743</v>
       </c>
       <c r="D6">
-        <v>1.046397290366429</v>
+        <v>1.034881363197881</v>
       </c>
       <c r="E6">
-        <v>1.043086740122258</v>
+        <v>1.030361696638851</v>
       </c>
       <c r="F6">
-        <v>1.052425206723978</v>
+        <v>1.039759771492133</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052658277125328</v>
+        <v>1.048182491477382</v>
       </c>
       <c r="J6">
-        <v>1.050646771100617</v>
+        <v>1.035981354420685</v>
       </c>
       <c r="K6">
-        <v>1.055719340085234</v>
+        <v>1.044325733056307</v>
       </c>
       <c r="L6">
-        <v>1.052443615576362</v>
+        <v>1.039854990165189</v>
       </c>
       <c r="M6">
-        <v>1.061684531726478</v>
+        <v>1.049151918847424</v>
       </c>
       <c r="N6">
-        <v>1.052138810026449</v>
+        <v>1.037452566772684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030477908674851</v>
+        <v>1.016112965187099</v>
       </c>
       <c r="D7">
-        <v>1.044790842994813</v>
+        <v>1.033809003646729</v>
       </c>
       <c r="E7">
-        <v>1.041328746863318</v>
+        <v>1.029183433784516</v>
       </c>
       <c r="F7">
-        <v>1.050597943872683</v>
+        <v>1.038508629743717</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052121349058753</v>
+        <v>1.04787825167226</v>
       </c>
       <c r="J7">
-        <v>1.049127043306979</v>
+        <v>1.035107347950771</v>
       </c>
       <c r="K7">
-        <v>1.054374312784404</v>
+        <v>1.043512943578208</v>
       </c>
       <c r="L7">
-        <v>1.050949858951622</v>
+        <v>1.038939063349164</v>
       </c>
       <c r="M7">
-        <v>1.060118957194459</v>
+        <v>1.048160631928396</v>
       </c>
       <c r="N7">
-        <v>1.050616924045029</v>
+        <v>1.036577319113333</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021596713986457</v>
+        <v>1.010055843587261</v>
       </c>
       <c r="D8">
-        <v>1.037898634146103</v>
+        <v>1.029240384506137</v>
       </c>
       <c r="E8">
-        <v>1.033794172486877</v>
+        <v>1.024171262966681</v>
       </c>
       <c r="F8">
-        <v>1.042766132834731</v>
+        <v>1.033184967143276</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04979074524753</v>
+        <v>1.046558454414306</v>
       </c>
       <c r="J8">
-        <v>1.042596465570446</v>
+        <v>1.031376314801452</v>
       </c>
       <c r="K8">
-        <v>1.048588595340474</v>
+        <v>1.040038323724644</v>
       </c>
       <c r="L8">
-        <v>1.04453503994042</v>
+        <v>1.035033478158994</v>
       </c>
       <c r="M8">
-        <v>1.053396369831216</v>
+        <v>1.043933433323196</v>
       </c>
       <c r="N8">
-        <v>1.044077072139042</v>
+        <v>1.032840987468987</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004965223636832</v>
+        <v>0.998896377702006</v>
       </c>
       <c r="D9">
-        <v>1.025012602332205</v>
+        <v>1.020842047028359</v>
       </c>
       <c r="E9">
-        <v>1.019735506287915</v>
+        <v>1.014985561359126</v>
       </c>
       <c r="F9">
-        <v>1.028151623186629</v>
+        <v>1.023422718771433</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045330603666995</v>
+        <v>1.044043323795656</v>
       </c>
       <c r="J9">
-        <v>1.030343857237078</v>
+        <v>1.024488167999783</v>
       </c>
       <c r="K9">
-        <v>1.037712495785637</v>
+        <v>1.033605790586238</v>
       </c>
       <c r="L9">
-        <v>1.03251630262783</v>
+        <v>1.027840098608121</v>
       </c>
       <c r="M9">
-        <v>1.040803894283007</v>
+        <v>1.036146874636765</v>
       </c>
       <c r="N9">
-        <v>1.031807063696447</v>
+        <v>1.025943058708778</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9931072066584341</v>
+        <v>0.9910931567580524</v>
       </c>
       <c r="D10">
-        <v>1.015846851444367</v>
+        <v>1.014986533773738</v>
       </c>
       <c r="E10">
-        <v>1.00975305993672</v>
+        <v>1.00859882588578</v>
       </c>
       <c r="F10">
-        <v>1.017773805656468</v>
+        <v>1.016631234976804</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04208979583796</v>
+        <v>1.042230938123559</v>
       </c>
       <c r="J10">
-        <v>1.021596994155489</v>
+        <v>1.019664669903714</v>
       </c>
       <c r="K10">
-        <v>1.029935761790735</v>
+        <v>1.029090372993078</v>
       </c>
       <c r="L10">
-        <v>1.023948424753033</v>
+        <v>1.022814542302058</v>
       </c>
       <c r="M10">
-        <v>1.031829396488054</v>
+        <v>1.030706562603643</v>
       </c>
       <c r="N10">
-        <v>1.023047779066002</v>
+        <v>1.02111271069215</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9877614764443229</v>
+        <v>0.9876191177379896</v>
       </c>
       <c r="D11">
-        <v>1.011721937401608</v>
+        <v>1.012384675597487</v>
       </c>
       <c r="E11">
-        <v>1.005264269566761</v>
+        <v>1.005764857994196</v>
       </c>
       <c r="F11">
-        <v>1.013107103537044</v>
+        <v>1.013616740560927</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040615434504835</v>
+        <v>1.041411987871264</v>
       </c>
       <c r="J11">
-        <v>1.017652406690045</v>
+        <v>1.017516183034033</v>
       </c>
       <c r="K11">
-        <v>1.026426129807622</v>
+        <v>1.02707675429489</v>
       </c>
       <c r="L11">
-        <v>1.020087587658093</v>
+        <v>1.020578870305547</v>
       </c>
       <c r="M11">
-        <v>1.027786000997905</v>
+        <v>1.028286354022459</v>
       </c>
       <c r="N11">
-        <v>1.019097589833908</v>
+        <v>1.018961172724679</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9857413634461515</v>
+        <v>0.9863135807704112</v>
       </c>
       <c r="D12">
-        <v>1.01016441331653</v>
+        <v>1.011407752567494</v>
       </c>
       <c r="E12">
-        <v>1.003569857224941</v>
+        <v>1.004701351600944</v>
       </c>
       <c r="F12">
-        <v>1.01134551852081</v>
+        <v>1.012485347572363</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040056375498184</v>
+        <v>1.041102474784706</v>
       </c>
       <c r="J12">
-        <v>1.016161678048531</v>
+        <v>1.016708685455517</v>
       </c>
       <c r="K12">
-        <v>1.025099436117654</v>
+        <v>1.026319613590996</v>
       </c>
       <c r="L12">
-        <v>1.018628982502207</v>
+        <v>1.019739032025081</v>
       </c>
       <c r="M12">
-        <v>1.026258537116638</v>
+        <v>1.027377194424804</v>
       </c>
       <c r="N12">
-        <v>1.017604744186733</v>
+        <v>1.01815252840698</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9861762921108562</v>
+        <v>0.9865943211414997</v>
       </c>
       <c r="D13">
-        <v>1.010499687364302</v>
+        <v>1.011617788449794</v>
       </c>
       <c r="E13">
-        <v>1.003934575775556</v>
+        <v>1.004929977445878</v>
       </c>
       <c r="F13">
-        <v>1.01172469646423</v>
+        <v>1.012728573592135</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040176824898432</v>
+        <v>1.041169110162293</v>
       </c>
       <c r="J13">
-        <v>1.016482633162263</v>
+        <v>1.01688233193362</v>
       </c>
       <c r="K13">
-        <v>1.025385089145175</v>
+        <v>1.0264824458631</v>
       </c>
       <c r="L13">
-        <v>1.018942999767279</v>
+        <v>1.019919613752196</v>
       </c>
       <c r="M13">
-        <v>1.026587373521769</v>
+        <v>1.027572681494223</v>
       </c>
       <c r="N13">
-        <v>1.017926155093541</v>
+        <v>1.018326421482999</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9875952135180182</v>
+        <v>0.9875115151391336</v>
       </c>
       <c r="D14">
-        <v>1.011593720789753</v>
+        <v>1.01230413959805</v>
       </c>
       <c r="E14">
-        <v>1.00512477416495</v>
+        <v>1.005677172808802</v>
       </c>
       <c r="F14">
-        <v>1.012962078314998</v>
+        <v>1.013523461038937</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040569459952111</v>
+        <v>1.041386513028253</v>
       </c>
       <c r="J14">
-        <v>1.017529715381658</v>
+        <v>1.017449630647111</v>
       </c>
       <c r="K14">
-        <v>1.026316945756452</v>
+        <v>1.027014358857634</v>
       </c>
       <c r="L14">
-        <v>1.019967530509831</v>
+        <v>1.020509643747545</v>
       </c>
       <c r="M14">
-        <v>1.027660273806291</v>
+        <v>1.028211413377669</v>
       </c>
       <c r="N14">
-        <v>1.01897472428979</v>
+        <v>1.018894525825734</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9884648023838426</v>
+        <v>0.9880745989294699</v>
       </c>
       <c r="D15">
-        <v>1.012264371722565</v>
+        <v>1.01272561923392</v>
       </c>
       <c r="E15">
-        <v>1.005854440420207</v>
+        <v>1.006136090201071</v>
       </c>
       <c r="F15">
-        <v>1.013720669109645</v>
+        <v>1.014011651752936</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040809839201475</v>
+        <v>1.041519751635111</v>
       </c>
       <c r="J15">
-        <v>1.018171412577026</v>
+        <v>1.017797895151975</v>
       </c>
       <c r="K15">
-        <v>1.02688798393757</v>
+        <v>1.027340856875766</v>
       </c>
       <c r="L15">
-        <v>1.020595469914818</v>
+        <v>1.020871919470064</v>
       </c>
       <c r="M15">
-        <v>1.028317874025651</v>
+        <v>1.028603592051404</v>
       </c>
       <c r="N15">
-        <v>1.019617332768779</v>
+        <v>1.019243284906141</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.993457309245931</v>
+        <v>0.9913216428003685</v>
       </c>
       <c r="D16">
-        <v>1.01611716271682</v>
+        <v>1.01515776969331</v>
       </c>
       <c r="E16">
-        <v>1.010047289013956</v>
+        <v>1.008785417674356</v>
       </c>
       <c r="F16">
-        <v>1.018079694099471</v>
+        <v>1.016829693411316</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042186085839052</v>
+        <v>1.042284553699274</v>
       </c>
       <c r="J16">
-        <v>1.021855313314549</v>
+        <v>1.019805957952486</v>
       </c>
       <c r="K16">
-        <v>1.030165547563332</v>
+        <v>1.029222744577847</v>
       </c>
       <c r="L16">
-        <v>1.024201323607605</v>
+        <v>1.022961622805154</v>
       </c>
       <c r="M16">
-        <v>1.032094268326852</v>
+        <v>1.030865783217467</v>
       </c>
       <c r="N16">
-        <v>1.023306465067898</v>
+        <v>1.021254199386157</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9965306064565166</v>
+        <v>0.9933323792686266</v>
       </c>
       <c r="D17">
-        <v>1.01849085408706</v>
+        <v>1.016665275793845</v>
       </c>
       <c r="E17">
-        <v>1.012631420451918</v>
+        <v>1.010428557527415</v>
       </c>
       <c r="F17">
-        <v>1.02076621262942</v>
+        <v>1.018577225752114</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043029845726931</v>
+        <v>1.042755018147267</v>
       </c>
       <c r="J17">
-        <v>1.024122764312273</v>
+        <v>1.021049217804138</v>
       </c>
       <c r="K17">
-        <v>1.032182257470968</v>
+        <v>1.030387278527084</v>
       </c>
       <c r="L17">
-        <v>1.026421541500037</v>
+        <v>1.024256174138214</v>
       </c>
       <c r="M17">
-        <v>1.034419675018173</v>
+        <v>1.032267184923089</v>
       </c>
       <c r="N17">
-        <v>1.025577136106119</v>
+        <v>1.022499224809402</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9983030394810428</v>
+        <v>0.9944960816730503</v>
       </c>
       <c r="D18">
-        <v>1.019860467190223</v>
+        <v>1.017538209446632</v>
       </c>
       <c r="E18">
-        <v>1.014122805436967</v>
+        <v>1.011380406525025</v>
       </c>
       <c r="F18">
-        <v>1.022316676350887</v>
+        <v>1.019589459662006</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043515193377752</v>
+        <v>1.043026147769637</v>
       </c>
       <c r="J18">
-        <v>1.02543030958716</v>
+        <v>1.021768645186257</v>
       </c>
       <c r="K18">
-        <v>1.033344968296315</v>
+        <v>1.031060925109842</v>
       </c>
       <c r="L18">
-        <v>1.027702133786247</v>
+        <v>1.025005548792054</v>
       </c>
       <c r="M18">
-        <v>1.035761001389159</v>
+        <v>1.033078408869865</v>
       </c>
       <c r="N18">
-        <v>1.026886538245275</v>
+        <v>1.023219673860923</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9989040507399296</v>
+        <v>0.9948913501928485</v>
       </c>
       <c r="D19">
-        <v>1.020324993247139</v>
+        <v>1.017834791694811</v>
       </c>
       <c r="E19">
-        <v>1.014628692711448</v>
+        <v>1.011703864938799</v>
       </c>
       <c r="F19">
-        <v>1.022842601347355</v>
+        <v>1.019933423194288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043679551531855</v>
+        <v>1.043118044266596</v>
       </c>
       <c r="J19">
-        <v>1.025873655964339</v>
+        <v>1.022012990251775</v>
       </c>
       <c r="K19">
-        <v>1.033739163734632</v>
+        <v>1.031289682452418</v>
       </c>
       <c r="L19">
-        <v>1.028136389041135</v>
+        <v>1.025260110237598</v>
       </c>
       <c r="M19">
-        <v>1.036215862210304</v>
+        <v>1.033353979782488</v>
       </c>
       <c r="N19">
-        <v>1.027330514225161</v>
+        <v>1.023464365924461</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9962029758210059</v>
+        <v>0.9931175959943008</v>
       </c>
       <c r="D20">
-        <v>1.018237735847002</v>
+        <v>1.016504196981026</v>
       </c>
       <c r="E20">
-        <v>1.012355826054921</v>
+        <v>1.01025294730551</v>
       </c>
       <c r="F20">
-        <v>1.020479700011756</v>
+        <v>1.018390467763865</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042940027036585</v>
+        <v>1.042704882767954</v>
       </c>
       <c r="J20">
-        <v>1.023881055142585</v>
+        <v>1.020916425232373</v>
       </c>
       <c r="K20">
-        <v>1.031967302092056</v>
+        <v>1.030262917872366</v>
       </c>
       <c r="L20">
-        <v>1.026184837696046</v>
+        <v>1.024117875409815</v>
       </c>
       <c r="M20">
-        <v>1.03417175016581</v>
+        <v>1.032117471497774</v>
       </c>
       <c r="N20">
-        <v>1.025335083681685</v>
+        <v>1.022366243656954</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9871783517977087</v>
+        <v>0.987241848772242</v>
       </c>
       <c r="D21">
-        <v>1.01127227124268</v>
+        <v>1.012102319728342</v>
       </c>
       <c r="E21">
-        <v>1.004775055781843</v>
+        <v>1.005457446430984</v>
       </c>
       <c r="F21">
-        <v>1.012598496306342</v>
+        <v>1.01328971380223</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040454160187456</v>
+        <v>1.041322641662092</v>
       </c>
       <c r="J21">
-        <v>1.017222097175121</v>
+        <v>1.017282840124165</v>
       </c>
       <c r="K21">
-        <v>1.026043188302616</v>
+        <v>1.026857981006932</v>
       </c>
       <c r="L21">
-        <v>1.019666524476502</v>
+        <v>1.020336158240283</v>
       </c>
       <c r="M21">
-        <v>1.027345053719667</v>
+        <v>1.028023608084137</v>
       </c>
       <c r="N21">
-        <v>1.018666669230116</v>
+        <v>1.018727498441114</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9813031677088064</v>
+        <v>0.9834595779281449</v>
       </c>
       <c r="D22">
-        <v>1.00674505197012</v>
+        <v>1.009273792801989</v>
       </c>
       <c r="E22">
-        <v>0.9998508582628312</v>
+        <v>1.002379277019122</v>
       </c>
       <c r="F22">
-        <v>1.007479061420887</v>
+        <v>1.010014790125022</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038824720982012</v>
+        <v>1.040422699935897</v>
       </c>
       <c r="J22">
-        <v>1.01288649727931</v>
+        <v>1.014943313309135</v>
       </c>
       <c r="K22">
-        <v>1.02218406192681</v>
+        <v>1.024663745806422</v>
       </c>
       <c r="L22">
-        <v>1.015425270259239</v>
+        <v>1.017903746861622</v>
       </c>
       <c r="M22">
-        <v>1.022903798518144</v>
+        <v>1.025390428926849</v>
       </c>
       <c r="N22">
-        <v>1.014324912285152</v>
+        <v>1.016384649229659</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.98443777621718</v>
+        <v>0.9854732588206976</v>
       </c>
       <c r="D23">
-        <v>1.009159713731983</v>
+        <v>1.010779197639646</v>
       </c>
       <c r="E23">
-        <v>1.002476993596818</v>
+        <v>1.004017245424471</v>
       </c>
       <c r="F23">
-        <v>1.010209326021658</v>
+        <v>1.011757533398651</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039695087734765</v>
+        <v>1.040902767235656</v>
       </c>
       <c r="J23">
-        <v>1.015199692387525</v>
+        <v>1.016188910401379</v>
       </c>
       <c r="K23">
-        <v>1.024243213055202</v>
+        <v>1.025832161599271</v>
       </c>
       <c r="L23">
-        <v>1.017687862088572</v>
+        <v>1.019198560715403</v>
       </c>
       <c r="M23">
-        <v>1.025273020323445</v>
+        <v>1.026792112690644</v>
       </c>
       <c r="N23">
-        <v>1.016641392395748</v>
+        <v>1.017632015212646</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9963510801276984</v>
+        <v>0.9932146754532423</v>
       </c>
       <c r="D24">
-        <v>1.018352155054057</v>
+        <v>1.016577001209135</v>
       </c>
       <c r="E24">
-        <v>1.012480404266508</v>
+        <v>1.010332318258386</v>
       </c>
       <c r="F24">
-        <v>1.020609213675129</v>
+        <v>1.01847487747164</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042980633205792</v>
+        <v>1.042727546923937</v>
       </c>
       <c r="J24">
-        <v>1.023990319387502</v>
+        <v>1.020976446200253</v>
       </c>
       <c r="K24">
-        <v>1.032064473084233</v>
+        <v>1.030319128394262</v>
       </c>
       <c r="L24">
-        <v>1.026291838391556</v>
+        <v>1.024180384280604</v>
       </c>
       <c r="M24">
-        <v>1.034283823082993</v>
+        <v>1.032185139643389</v>
       </c>
       <c r="N24">
-        <v>1.025444503094363</v>
+        <v>1.022426349861493</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009391871614164</v>
+        <v>1.001842605218338</v>
       </c>
       <c r="D25">
-        <v>1.028439217294926</v>
+        <v>1.023056695312854</v>
       </c>
       <c r="E25">
-        <v>1.023470830940807</v>
+        <v>1.017404687084801</v>
       </c>
       <c r="F25">
-        <v>1.032034762490746</v>
+        <v>1.025994350561152</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046528417653432</v>
+        <v>1.04471681457863</v>
       </c>
       <c r="J25">
-        <v>1.03360724368831</v>
+        <v>1.026308117070996</v>
       </c>
       <c r="K25">
-        <v>1.040611528238831</v>
+        <v>1.035307327116418</v>
       </c>
       <c r="L25">
-        <v>1.035715399550361</v>
+        <v>1.029738694846704</v>
       </c>
       <c r="M25">
-        <v>1.044155331064632</v>
+        <v>1.038202107486921</v>
       </c>
       <c r="N25">
-        <v>1.035075084530755</v>
+        <v>1.027765592316424</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008464777648413</v>
+        <v>1.004898094511145</v>
       </c>
       <c r="D2">
-        <v>1.028041415998302</v>
+        <v>1.026444517516289</v>
       </c>
       <c r="E2">
-        <v>1.022857799168043</v>
+        <v>1.020024569093399</v>
       </c>
       <c r="F2">
-        <v>1.031789497474229</v>
+        <v>1.029370091591784</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046206109193874</v>
+        <v>1.045629781456397</v>
       </c>
       <c r="J2">
-        <v>1.030395223099975</v>
+        <v>1.026933284913935</v>
       </c>
       <c r="K2">
-        <v>1.039123437759273</v>
+        <v>1.037547332896853</v>
       </c>
       <c r="L2">
-        <v>1.034007614837464</v>
+        <v>1.031211804532415</v>
       </c>
       <c r="M2">
-        <v>1.042823030747171</v>
+        <v>1.040434873872435</v>
       </c>
       <c r="N2">
-        <v>1.031858502504766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012827316020299</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03761948279932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01313484920736</v>
+        <v>1.008562271073485</v>
       </c>
       <c r="D3">
-        <v>1.031561945204157</v>
+        <v>1.028918531148677</v>
       </c>
       <c r="E3">
-        <v>1.026716723775419</v>
+        <v>1.022963142720925</v>
       </c>
       <c r="F3">
-        <v>1.035888912941071</v>
+        <v>1.03246775733817</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047233762603281</v>
+        <v>1.046218157909742</v>
       </c>
       <c r="J3">
-        <v>1.033273738623813</v>
+        <v>1.028822210579619</v>
       </c>
       <c r="K3">
-        <v>1.041806304437531</v>
+        <v>1.039194296110529</v>
       </c>
       <c r="L3">
-        <v>1.037018800971631</v>
+        <v>1.03331040052944</v>
       </c>
       <c r="M3">
-        <v>1.046082292676605</v>
+        <v>1.042701400670901</v>
       </c>
       <c r="N3">
-        <v>1.034741105850813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013467857853777</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038781363925452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016096460418338</v>
+        <v>1.010894855124862</v>
       </c>
       <c r="D4">
-        <v>1.033796546399888</v>
+        <v>1.03049682317037</v>
       </c>
       <c r="E4">
-        <v>1.029169750487563</v>
+        <v>1.024839778508406</v>
       </c>
       <c r="F4">
-        <v>1.038494099297533</v>
+        <v>1.034445580119455</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047874704536463</v>
+        <v>1.046583193681692</v>
       </c>
       <c r="J4">
-        <v>1.035097190897319</v>
+        <v>1.03002391640201</v>
       </c>
       <c r="K4">
-        <v>1.043503495233119</v>
+        <v>1.040240600581082</v>
       </c>
       <c r="L4">
-        <v>1.038928421506808</v>
+        <v>1.034647375088654</v>
       </c>
       <c r="M4">
-        <v>1.048149114345842</v>
+        <v>1.044145319025959</v>
       </c>
       <c r="N4">
-        <v>1.0365671476357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013875243354391</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039522088860643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017327619841824</v>
+        <v>1.011869478049412</v>
       </c>
       <c r="D5">
-        <v>1.034725901793858</v>
+        <v>1.031158919962827</v>
       </c>
       <c r="E5">
-        <v>1.030190837624754</v>
+        <v>1.025625797833951</v>
       </c>
       <c r="F5">
-        <v>1.039578352844484</v>
+        <v>1.035274174285067</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048138522418369</v>
+        <v>1.046734681803737</v>
       </c>
       <c r="J5">
-        <v>1.035854691028618</v>
+        <v>1.030527164100602</v>
       </c>
       <c r="K5">
-        <v>1.044207970281607</v>
+        <v>1.040679735763089</v>
       </c>
       <c r="L5">
-        <v>1.039722226317642</v>
+        <v>1.03520737411838</v>
       </c>
       <c r="M5">
-        <v>1.049008233217391</v>
+        <v>1.044750316043749</v>
       </c>
       <c r="N5">
-        <v>1.037325723504072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014046041171496</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039839766875474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017533536322743</v>
+        <v>1.01203616683936</v>
       </c>
       <c r="D6">
-        <v>1.034881363197881</v>
+        <v>1.031274476932127</v>
       </c>
       <c r="E6">
-        <v>1.030361696638851</v>
+        <v>1.025760923410706</v>
       </c>
       <c r="F6">
-        <v>1.039759771492133</v>
+        <v>1.035416967173036</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048182491477382</v>
+        <v>1.046762019519586</v>
       </c>
       <c r="J6">
-        <v>1.035981354420685</v>
+        <v>1.030614859042828</v>
       </c>
       <c r="K6">
-        <v>1.044325733056307</v>
+        <v>1.040757847564687</v>
       </c>
       <c r="L6">
-        <v>1.039854990165189</v>
+        <v>1.035304562501083</v>
       </c>
       <c r="M6">
-        <v>1.049151918847424</v>
+        <v>1.044855574015579</v>
       </c>
       <c r="N6">
-        <v>1.037452566772684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014076075182415</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03990374451175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016112965187099</v>
+        <v>1.010917490033629</v>
       </c>
       <c r="D7">
-        <v>1.033809003646729</v>
+        <v>1.030518282585482</v>
       </c>
       <c r="E7">
-        <v>1.029183433784516</v>
+        <v>1.024859672619015</v>
       </c>
       <c r="F7">
-        <v>1.038508629743717</v>
+        <v>1.034467488416967</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04787825167226</v>
+        <v>1.046590921925785</v>
       </c>
       <c r="J7">
-        <v>1.035107347950771</v>
+        <v>1.030039998940415</v>
       </c>
       <c r="K7">
-        <v>1.043512943578208</v>
+        <v>1.040258936895461</v>
       </c>
       <c r="L7">
-        <v>1.038939063349164</v>
+        <v>1.034664139295252</v>
       </c>
       <c r="M7">
-        <v>1.048160631928396</v>
+        <v>1.044164116167942</v>
       </c>
       <c r="N7">
-        <v>1.036577319113333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01388144530897</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03955517184781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010055843587261</v>
+        <v>1.006156508372108</v>
       </c>
       <c r="D8">
-        <v>1.029240384506137</v>
+        <v>1.027300975176122</v>
       </c>
       <c r="E8">
-        <v>1.024171262966681</v>
+        <v>1.021034618555398</v>
       </c>
       <c r="F8">
-        <v>1.033184967143276</v>
+        <v>1.030436013604923</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046558454414306</v>
+        <v>1.045838971168269</v>
       </c>
       <c r="J8">
-        <v>1.031376314801452</v>
+        <v>1.027587618325152</v>
       </c>
       <c r="K8">
-        <v>1.040038323724644</v>
+        <v>1.03812341239863</v>
       </c>
       <c r="L8">
-        <v>1.035033478158994</v>
+        <v>1.031937005733764</v>
       </c>
       <c r="M8">
-        <v>1.043933433323196</v>
+        <v>1.041218907325803</v>
       </c>
       <c r="N8">
-        <v>1.032840987468987</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013050200758821</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038049748984477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.998896377702006</v>
+        <v>0.9974450693653771</v>
       </c>
       <c r="D9">
-        <v>1.020842047028359</v>
+        <v>1.021432889158822</v>
       </c>
       <c r="E9">
-        <v>1.014985561359126</v>
+        <v>1.014081703353614</v>
       </c>
       <c r="F9">
-        <v>1.023422718771433</v>
+        <v>1.023103234161904</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044043323795656</v>
+        <v>1.044382793287252</v>
       </c>
       <c r="J9">
-        <v>1.024488167999783</v>
+        <v>1.023088372538924</v>
       </c>
       <c r="K9">
-        <v>1.033605790586238</v>
+        <v>1.034187546621982</v>
       </c>
       <c r="L9">
-        <v>1.027840098608121</v>
+        <v>1.026950372670808</v>
       </c>
       <c r="M9">
-        <v>1.036146874636765</v>
+        <v>1.03583227712735</v>
       </c>
       <c r="N9">
-        <v>1.025943058708778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011523066990378</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035263641902393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9910931567580524</v>
+        <v>0.9914159998319839</v>
       </c>
       <c r="D10">
-        <v>1.014986533773738</v>
+        <v>1.017395888571269</v>
       </c>
       <c r="E10">
-        <v>1.00859882588578</v>
+        <v>1.00930560814045</v>
       </c>
       <c r="F10">
-        <v>1.016631234976804</v>
+        <v>1.018064259807908</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042230938123559</v>
+        <v>1.043328879851454</v>
       </c>
       <c r="J10">
-        <v>1.019664669903714</v>
+        <v>1.019974381008367</v>
       </c>
       <c r="K10">
-        <v>1.029090372993078</v>
+        <v>1.031458001206236</v>
       </c>
       <c r="L10">
-        <v>1.022814542302058</v>
+        <v>1.023508855320301</v>
       </c>
       <c r="M10">
-        <v>1.030706562603643</v>
+        <v>1.032114842459864</v>
       </c>
       <c r="N10">
-        <v>1.02111271069215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010466048410721</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033350524268435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9876191177379896</v>
+        <v>0.9887600583469733</v>
       </c>
       <c r="D11">
-        <v>1.012384675597487</v>
+        <v>1.015630707506266</v>
       </c>
       <c r="E11">
-        <v>1.005764857994196</v>
+        <v>1.007212807423004</v>
       </c>
       <c r="F11">
-        <v>1.013616740560927</v>
+        <v>1.015856622393226</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041411987871264</v>
+        <v>1.042858796604532</v>
       </c>
       <c r="J11">
-        <v>1.017516183034033</v>
+        <v>1.018608024833801</v>
       </c>
       <c r="K11">
-        <v>1.02707675429489</v>
+        <v>1.030263751320957</v>
       </c>
       <c r="L11">
-        <v>1.020578870305547</v>
+        <v>1.021999970704954</v>
       </c>
       <c r="M11">
-        <v>1.028286354022459</v>
+        <v>1.030485575803943</v>
       </c>
       <c r="N11">
-        <v>1.018961172724679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010003346125281</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032539074600115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9863135807704112</v>
+        <v>0.9877577044903387</v>
       </c>
       <c r="D12">
-        <v>1.011407752567494</v>
+        <v>1.014961385600412</v>
       </c>
       <c r="E12">
-        <v>1.004701351600944</v>
+        <v>1.006423108646948</v>
       </c>
       <c r="F12">
-        <v>1.012485347572363</v>
+        <v>1.015023003088485</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041102474784706</v>
+        <v>1.042677078264209</v>
       </c>
       <c r="J12">
-        <v>1.016708685455517</v>
+        <v>1.018089371697086</v>
       </c>
       <c r="K12">
-        <v>1.026319613590996</v>
+        <v>1.029807454821213</v>
       </c>
       <c r="L12">
-        <v>1.019739032025081</v>
+        <v>1.021428278017317</v>
       </c>
       <c r="M12">
-        <v>1.027377194424804</v>
+        <v>1.029867936820618</v>
       </c>
       <c r="N12">
-        <v>1.01815252840698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009827084593399</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032216456144445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9865943211414997</v>
+        <v>0.9879717864205895</v>
       </c>
       <c r="D13">
-        <v>1.011617788449794</v>
+        <v>1.015103499013696</v>
       </c>
       <c r="E13">
-        <v>1.004929977445878</v>
+        <v>1.006591458693395</v>
       </c>
       <c r="F13">
-        <v>1.012728573592135</v>
+        <v>1.015200623802029</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041169110162293</v>
+        <v>1.042715428600118</v>
       </c>
       <c r="J13">
-        <v>1.01688233193362</v>
+        <v>1.018199553217432</v>
       </c>
       <c r="K13">
-        <v>1.0264824458631</v>
+        <v>1.029903867343727</v>
       </c>
       <c r="L13">
-        <v>1.019919613752196</v>
+        <v>1.02154984350014</v>
       </c>
       <c r="M13">
-        <v>1.027572681494223</v>
+        <v>1.029999209034994</v>
       </c>
       <c r="N13">
-        <v>1.018326421482999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009864406185982</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032282121520649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9875115151391336</v>
+        <v>0.9886768178025938</v>
       </c>
       <c r="D14">
-        <v>1.01230413959805</v>
+        <v>1.015574763527703</v>
       </c>
       <c r="E14">
-        <v>1.005677172808802</v>
+        <v>1.007147091691235</v>
       </c>
       <c r="F14">
-        <v>1.013523461038937</v>
+        <v>1.015787212062632</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041386513028253</v>
+        <v>1.04284351057782</v>
       </c>
       <c r="J14">
-        <v>1.017449630647111</v>
+        <v>1.018564700363076</v>
       </c>
       <c r="K14">
-        <v>1.027014358857634</v>
+        <v>1.030225412452648</v>
       </c>
       <c r="L14">
-        <v>1.020509643747545</v>
+        <v>1.021952265085516</v>
       </c>
       <c r="M14">
-        <v>1.028211413377669</v>
+        <v>1.030434008760095</v>
       </c>
       <c r="N14">
-        <v>1.018894525825734</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009988570231996</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032510895878851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9880745989294699</v>
+        <v>0.9891126579031657</v>
       </c>
       <c r="D15">
-        <v>1.01272561923392</v>
+        <v>1.015867803595472</v>
       </c>
       <c r="E15">
-        <v>1.006136090201071</v>
+        <v>1.007491256086333</v>
       </c>
       <c r="F15">
-        <v>1.014011651752936</v>
+        <v>1.016150733181232</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041519751635111</v>
+        <v>1.04292353757349</v>
       </c>
       <c r="J15">
-        <v>1.017797895151975</v>
+        <v>1.018791605700537</v>
       </c>
       <c r="K15">
-        <v>1.027340856875766</v>
+        <v>1.030426253624986</v>
       </c>
       <c r="L15">
-        <v>1.020871919470064</v>
+        <v>1.022202117283991</v>
       </c>
       <c r="M15">
-        <v>1.028603592051404</v>
+        <v>1.030704092319373</v>
       </c>
       <c r="N15">
-        <v>1.019243284906141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010065968493656</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03265879062867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9913216428003685</v>
+        <v>0.9916139083115717</v>
       </c>
       <c r="D16">
-        <v>1.01515776969331</v>
+        <v>1.017541352858448</v>
       </c>
       <c r="E16">
-        <v>1.008785417674356</v>
+        <v>1.009466011671306</v>
       </c>
       <c r="F16">
-        <v>1.016829693411316</v>
+        <v>1.018235180371188</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042284553699274</v>
+        <v>1.0433728954528</v>
       </c>
       <c r="J16">
-        <v>1.019805957952486</v>
+        <v>1.020086380655403</v>
       </c>
       <c r="K16">
-        <v>1.029222744577847</v>
+        <v>1.03156518488037</v>
       </c>
       <c r="L16">
-        <v>1.022961622805154</v>
+        <v>1.023630250134378</v>
       </c>
       <c r="M16">
-        <v>1.030865783217467</v>
+        <v>1.032247083073646</v>
       </c>
       <c r="N16">
-        <v>1.021254199386157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010506059651419</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033467237436216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9933323792686266</v>
+        <v>0.9931670111539945</v>
       </c>
       <c r="D17">
-        <v>1.016665275793845</v>
+        <v>1.018582077550845</v>
       </c>
       <c r="E17">
-        <v>1.010428557527415</v>
+        <v>1.010694577881167</v>
       </c>
       <c r="F17">
-        <v>1.018577225752114</v>
+        <v>1.019531850510747</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042755018147267</v>
+        <v>1.04364905904809</v>
       </c>
       <c r="J17">
-        <v>1.021049217804138</v>
+        <v>1.02089032733165</v>
       </c>
       <c r="K17">
-        <v>1.030387278527084</v>
+        <v>1.032271955604687</v>
       </c>
       <c r="L17">
-        <v>1.024256174138214</v>
+        <v>1.024517655275436</v>
       </c>
       <c r="M17">
-        <v>1.032267184923089</v>
+        <v>1.033205868482998</v>
       </c>
       <c r="N17">
-        <v>1.022499224809402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010779294044662</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033969547710869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9944960816730503</v>
+        <v>0.9940602958783031</v>
       </c>
       <c r="D18">
-        <v>1.017538209446632</v>
+        <v>1.019176971101963</v>
       </c>
       <c r="E18">
-        <v>1.011380406525025</v>
+        <v>1.01140075002252</v>
       </c>
       <c r="F18">
-        <v>1.019589459662006</v>
+        <v>1.020276577268815</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043026147769637</v>
+        <v>1.043804021591524</v>
       </c>
       <c r="J18">
-        <v>1.021768645186257</v>
+        <v>1.021349591465403</v>
       </c>
       <c r="K18">
-        <v>1.031060925109842</v>
+        <v>1.032672696408035</v>
       </c>
       <c r="L18">
-        <v>1.025005548792054</v>
+        <v>1.025025551256477</v>
       </c>
       <c r="M18">
-        <v>1.033078408869865</v>
+        <v>1.033754254589131</v>
       </c>
       <c r="N18">
-        <v>1.023219673860923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010934747326842</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034241214011139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9948913501928485</v>
+        <v>0.994369376089964</v>
       </c>
       <c r="D19">
-        <v>1.017834791694811</v>
+        <v>1.019386188727714</v>
       </c>
       <c r="E19">
-        <v>1.011703864938799</v>
+        <v>1.011646230582875</v>
       </c>
       <c r="F19">
-        <v>1.019933423194288</v>
+        <v>1.020535873163148</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043118044266596</v>
+        <v>1.043859672099622</v>
       </c>
       <c r="J19">
-        <v>1.022012990251775</v>
+        <v>1.021510920151568</v>
       </c>
       <c r="K19">
-        <v>1.031289682452418</v>
+        <v>1.032815680705256</v>
       </c>
       <c r="L19">
-        <v>1.025260110237598</v>
+        <v>1.025203436182548</v>
       </c>
       <c r="M19">
-        <v>1.033353979782488</v>
+        <v>1.033946607027005</v>
       </c>
       <c r="N19">
-        <v>1.023464365924461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010989842676972</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034348720239816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9931175959943008</v>
+        <v>0.9930004123261248</v>
       </c>
       <c r="D20">
-        <v>1.016504196981026</v>
+        <v>1.018470055239028</v>
       </c>
       <c r="E20">
-        <v>1.01025294730551</v>
+        <v>1.010562603473143</v>
       </c>
       <c r="F20">
-        <v>1.018390467763865</v>
+        <v>1.019392523928174</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042704882767954</v>
+        <v>1.043619322986193</v>
       </c>
       <c r="J20">
-        <v>1.020916425232373</v>
+        <v>1.020803848609662</v>
       </c>
       <c r="K20">
-        <v>1.030262917872366</v>
+        <v>1.032195724059936</v>
       </c>
       <c r="L20">
-        <v>1.024117875409815</v>
+        <v>1.024422230627901</v>
       </c>
       <c r="M20">
-        <v>1.032117471497774</v>
+        <v>1.03310273987258</v>
       </c>
       <c r="N20">
-        <v>1.022366243656954</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010749854893239</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033914309628369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.987241848772242</v>
+        <v>0.9884770109507715</v>
       </c>
       <c r="D21">
-        <v>1.012102319728342</v>
+        <v>1.01544565319775</v>
       </c>
       <c r="E21">
-        <v>1.005457446430984</v>
+        <v>1.006990986880802</v>
       </c>
       <c r="F21">
-        <v>1.01328971380223</v>
+        <v>1.01562295306541</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041322641662092</v>
+        <v>1.042810241116515</v>
       </c>
       <c r="J21">
-        <v>1.017282840124165</v>
+        <v>1.018464530635727</v>
       </c>
       <c r="K21">
-        <v>1.026857981006932</v>
+        <v>1.030140194694309</v>
       </c>
       <c r="L21">
-        <v>1.020336158240283</v>
+        <v>1.021841112366397</v>
       </c>
       <c r="M21">
-        <v>1.028023608084137</v>
+        <v>1.030314267947049</v>
       </c>
       <c r="N21">
-        <v>1.018727498441114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009955199378777</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032464204120232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,81 +1373,93 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9834595779281449</v>
+        <v>0.9855703759572304</v>
       </c>
       <c r="D22">
-        <v>1.009273792801989</v>
+        <v>1.013502026271246</v>
       </c>
       <c r="E22">
-        <v>1.002379277019122</v>
+        <v>1.004702260725762</v>
       </c>
       <c r="F22">
-        <v>1.010014790125022</v>
+        <v>1.013206236504241</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040422699935897</v>
+        <v>1.042277293126435</v>
       </c>
       <c r="J22">
-        <v>1.014943313309135</v>
+        <v>1.016957229318472</v>
       </c>
       <c r="K22">
-        <v>1.024663745806422</v>
+        <v>1.028810668230375</v>
       </c>
       <c r="L22">
-        <v>1.017903746861622</v>
+        <v>1.020181136935964</v>
       </c>
       <c r="M22">
-        <v>1.025390428926849</v>
+        <v>1.028520537754873</v>
       </c>
       <c r="N22">
-        <v>1.016384649229659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009442230710336</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031510617154206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9854732588206976</v>
+        <v>0.9871073684665589</v>
       </c>
       <c r="D23">
-        <v>1.010779197639646</v>
+        <v>1.014523916435055</v>
       </c>
       <c r="E23">
-        <v>1.004017245424471</v>
+        <v>1.005910049602637</v>
       </c>
       <c r="F23">
-        <v>1.011757533398651</v>
+        <v>1.014480970666506</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040902767235656</v>
+        <v>1.042556409437075</v>
       </c>
       <c r="J23">
-        <v>1.016188910401379</v>
+        <v>1.01775029177842</v>
       </c>
       <c r="K23">
-        <v>1.025832161599271</v>
+        <v>1.029506760837212</v>
       </c>
       <c r="L23">
-        <v>1.019198560715403</v>
+        <v>1.021055209318287</v>
       </c>
       <c r="M23">
-        <v>1.026792112690644</v>
+        <v>1.029464615396037</v>
       </c>
       <c r="N23">
-        <v>1.017632015212646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009711305684724</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031993119569704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9932146754532423</v>
+        <v>0.9930609127466948</v>
       </c>
       <c r="D24">
-        <v>1.016577001209135</v>
+        <v>1.018501874448026</v>
       </c>
       <c r="E24">
-        <v>1.010332318258386</v>
+        <v>1.010607824153381</v>
       </c>
       <c r="F24">
-        <v>1.01847487747164</v>
+        <v>1.019439139765828</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042727546923937</v>
+        <v>1.043624175334131</v>
       </c>
       <c r="J24">
-        <v>1.020976446200253</v>
+        <v>1.020828718772888</v>
       </c>
       <c r="K24">
-        <v>1.030319128394262</v>
+        <v>1.032211684449365</v>
       </c>
       <c r="L24">
-        <v>1.024180384280604</v>
+        <v>1.024451180651813</v>
       </c>
       <c r="M24">
-        <v>1.032185139643389</v>
+        <v>1.033133270711256</v>
       </c>
       <c r="N24">
-        <v>1.022426349861493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010757007841955</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033898117192289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001842605218338</v>
+        <v>0.9997507253776815</v>
       </c>
       <c r="D25">
-        <v>1.023056695312854</v>
+        <v>1.022991754862798</v>
       </c>
       <c r="E25">
-        <v>1.017404687084801</v>
+        <v>1.015918722250576</v>
       </c>
       <c r="F25">
-        <v>1.025994350561152</v>
+        <v>1.025042283267101</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04471681457863</v>
+        <v>1.044782998315954</v>
       </c>
       <c r="J25">
-        <v>1.026308117070996</v>
+        <v>1.024286481521254</v>
       </c>
       <c r="K25">
-        <v>1.035307327116418</v>
+        <v>1.035243337998634</v>
       </c>
       <c r="L25">
-        <v>1.029738694846704</v>
+        <v>1.028274846183926</v>
       </c>
       <c r="M25">
-        <v>1.038202107486921</v>
+        <v>1.037263901406203</v>
       </c>
       <c r="N25">
-        <v>1.027765592316424</v>
+        <v>1.011931120197537</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036038791611029</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004898094511145</v>
+        <v>1.004673637532556</v>
       </c>
       <c r="D2">
-        <v>1.026444517516289</v>
+        <v>1.025793224118976</v>
       </c>
       <c r="E2">
-        <v>1.020024569093399</v>
+        <v>1.019763521140515</v>
       </c>
       <c r="F2">
-        <v>1.029370091591784</v>
+        <v>1.028929982125918</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045629781456397</v>
+        <v>1.045370772997057</v>
       </c>
       <c r="J2">
-        <v>1.026933284913935</v>
+        <v>1.026715453869135</v>
       </c>
       <c r="K2">
-        <v>1.037547332896853</v>
+        <v>1.036904543439666</v>
       </c>
       <c r="L2">
-        <v>1.031211804532415</v>
+        <v>1.03095421748711</v>
       </c>
       <c r="M2">
-        <v>1.040434873872435</v>
+        <v>1.040000468626104</v>
       </c>
       <c r="N2">
-        <v>1.012827316020299</v>
+        <v>1.014242345651272</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03761948279932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037173759170446</v>
+      </c>
+      <c r="S2">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T2">
+        <v>1.021881821316757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008562271073485</v>
+        <v>1.008196187660206</v>
       </c>
       <c r="D3">
-        <v>1.028918531148677</v>
+        <v>1.028091641858251</v>
       </c>
       <c r="E3">
-        <v>1.022963142720925</v>
+        <v>1.022568632252818</v>
       </c>
       <c r="F3">
-        <v>1.03246775733817</v>
+        <v>1.031872886489454</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046218157909742</v>
+        <v>1.045885070173457</v>
       </c>
       <c r="J3">
-        <v>1.028822210579619</v>
+        <v>1.028465883006716</v>
       </c>
       <c r="K3">
-        <v>1.039194296110529</v>
+        <v>1.038377271998926</v>
       </c>
       <c r="L3">
-        <v>1.03331040052944</v>
+        <v>1.032920662574301</v>
       </c>
       <c r="M3">
-        <v>1.042701400670901</v>
+        <v>1.04211356461138</v>
       </c>
       <c r="N3">
-        <v>1.013467857853777</v>
+        <v>1.014714392188482</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038781363925452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038212163784945</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022175896643654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010894855124862</v>
+        <v>1.010439576274923</v>
       </c>
       <c r="D4">
-        <v>1.03049682317037</v>
+        <v>1.029558775869675</v>
       </c>
       <c r="E4">
-        <v>1.024839778508406</v>
+        <v>1.024361059278435</v>
       </c>
       <c r="F4">
-        <v>1.034445580119455</v>
+        <v>1.033752948349336</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046583193681692</v>
+        <v>1.046203148995398</v>
       </c>
       <c r="J4">
-        <v>1.03002391640201</v>
+        <v>1.029579954690764</v>
       </c>
       <c r="K4">
-        <v>1.040240600581082</v>
+        <v>1.039313075995953</v>
       </c>
       <c r="L4">
-        <v>1.034647375088654</v>
+        <v>1.034174096352433</v>
       </c>
       <c r="M4">
-        <v>1.044145319025959</v>
+        <v>1.043460381899786</v>
       </c>
       <c r="N4">
-        <v>1.013875243354391</v>
+        <v>1.015014779978609</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039522088860643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038874836750997</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022360460250222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011869478049412</v>
+        <v>1.011377162444976</v>
       </c>
       <c r="D5">
-        <v>1.031158919962827</v>
+        <v>1.030174632834159</v>
       </c>
       <c r="E5">
-        <v>1.025625797833951</v>
+        <v>1.025112084174278</v>
       </c>
       <c r="F5">
-        <v>1.035274174285067</v>
+        <v>1.034540902829449</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046734681803737</v>
+        <v>1.046335084835747</v>
       </c>
       <c r="J5">
-        <v>1.030527164100602</v>
+        <v>1.030046722884659</v>
       </c>
       <c r="K5">
-        <v>1.040679735763089</v>
+        <v>1.039706198714971</v>
       </c>
       <c r="L5">
-        <v>1.03520737411838</v>
+        <v>1.034699342573887</v>
       </c>
       <c r="M5">
-        <v>1.044750316043749</v>
+        <v>1.044024972861725</v>
       </c>
       <c r="N5">
-        <v>1.014046041171496</v>
+        <v>1.015140800262592</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039839766875474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039160690179226</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022437822579011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01203616683936</v>
+        <v>1.011537543726996</v>
       </c>
       <c r="D6">
-        <v>1.031274476932127</v>
+        <v>1.030282362377716</v>
       </c>
       <c r="E6">
-        <v>1.025760923410706</v>
+        <v>1.025241254376837</v>
       </c>
       <c r="F6">
-        <v>1.035416967173036</v>
+        <v>1.034676794637901</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046762019519586</v>
+        <v>1.046359106009543</v>
       </c>
       <c r="J6">
-        <v>1.030614859042828</v>
+        <v>1.030128200983499</v>
       </c>
       <c r="K6">
-        <v>1.040757847564687</v>
+        <v>1.039776519371113</v>
       </c>
       <c r="L6">
-        <v>1.035304562501083</v>
+        <v>1.03479061502429</v>
       </c>
       <c r="M6">
-        <v>1.044855574015579</v>
+        <v>1.044123367552436</v>
       </c>
       <c r="N6">
-        <v>1.014076075182415</v>
+        <v>1.015163014464816</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03990374451175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039220026833323</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022452099124049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010917490033629</v>
+        <v>1.010468974094833</v>
       </c>
       <c r="D7">
-        <v>1.030518282585482</v>
+        <v>1.029584797226404</v>
       </c>
       <c r="E7">
-        <v>1.024859672619015</v>
+        <v>1.02438686432179</v>
       </c>
       <c r="F7">
-        <v>1.034467488416967</v>
+        <v>1.033780379938884</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046590921925785</v>
+        <v>1.046212905293412</v>
       </c>
       <c r="J7">
-        <v>1.030039998940415</v>
+        <v>1.029602627187634</v>
       </c>
       <c r="K7">
-        <v>1.040258936895461</v>
+        <v>1.03933591899186</v>
       </c>
       <c r="L7">
-        <v>1.034664139295252</v>
+        <v>1.034196702226218</v>
       </c>
       <c r="M7">
-        <v>1.044164116167942</v>
+        <v>1.043484637983768</v>
       </c>
       <c r="N7">
-        <v>1.01388144530897</v>
+        <v>1.015047308327914</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03955517184781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03891310342066</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02236674759963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006156508372108</v>
+        <v>1.005906623350604</v>
       </c>
       <c r="D8">
-        <v>1.027300975176122</v>
+        <v>1.026606335885865</v>
       </c>
       <c r="E8">
-        <v>1.021034618555398</v>
+        <v>1.020748227448991</v>
       </c>
       <c r="F8">
-        <v>1.030436013604923</v>
+        <v>1.029962387527347</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045838971168269</v>
+        <v>1.045562051660273</v>
       </c>
       <c r="J8">
-        <v>1.027587618325152</v>
+        <v>1.027344863505777</v>
       </c>
       <c r="K8">
-        <v>1.03812341239863</v>
+        <v>1.037437575678635</v>
       </c>
       <c r="L8">
-        <v>1.031937005733764</v>
+        <v>1.031654297908944</v>
       </c>
       <c r="M8">
-        <v>1.041218907325803</v>
+        <v>1.040751236028993</v>
       </c>
       <c r="N8">
-        <v>1.013050200758821</v>
+        <v>1.014491357154796</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038049748984477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037575851574649</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021991874627002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9974450693653771</v>
+        <v>0.99754145267462</v>
       </c>
       <c r="D9">
-        <v>1.021432889158822</v>
+        <v>1.021162022601635</v>
       </c>
       <c r="E9">
-        <v>1.014081703353614</v>
+        <v>1.014120352013042</v>
       </c>
       <c r="F9">
-        <v>1.023103234161904</v>
+        <v>1.023005217133572</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044382793287252</v>
+        <v>1.04428435947659</v>
       </c>
       <c r="J9">
-        <v>1.023088372538924</v>
+        <v>1.023181328302012</v>
       </c>
       <c r="K9">
-        <v>1.034187546621982</v>
+        <v>1.033920843841888</v>
       </c>
       <c r="L9">
-        <v>1.026950372670808</v>
+        <v>1.026988416388488</v>
       </c>
       <c r="M9">
-        <v>1.03583227712735</v>
+        <v>1.035735760228897</v>
       </c>
       <c r="N9">
-        <v>1.011523066990378</v>
+        <v>1.01337717805029</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035263641902393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035085826916802</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02127563147182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9914159998319839</v>
+        <v>0.991792969619041</v>
       </c>
       <c r="D10">
-        <v>1.017395888571269</v>
+        <v>1.017447532959155</v>
       </c>
       <c r="E10">
-        <v>1.00930560814045</v>
+        <v>1.009604511238898</v>
       </c>
       <c r="F10">
-        <v>1.018064259807908</v>
+        <v>1.018260418841579</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043328879851454</v>
+        <v>1.043366498374696</v>
       </c>
       <c r="J10">
-        <v>1.019974381008367</v>
+        <v>1.020336032520308</v>
       </c>
       <c r="K10">
-        <v>1.031458001206236</v>
+        <v>1.031508753985209</v>
       </c>
       <c r="L10">
-        <v>1.023508855320301</v>
+        <v>1.023802491902212</v>
       </c>
       <c r="M10">
-        <v>1.032114842459864</v>
+        <v>1.032307621295323</v>
       </c>
       <c r="N10">
-        <v>1.010466048410721</v>
+        <v>1.012726421229703</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033350524268435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033398852948403</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020775283902637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9887600583469733</v>
+        <v>0.9893181777655031</v>
       </c>
       <c r="D11">
-        <v>1.015630707506266</v>
+        <v>1.01586681084948</v>
       </c>
       <c r="E11">
-        <v>1.007212807423004</v>
+        <v>1.007677126348411</v>
       </c>
       <c r="F11">
-        <v>1.015856622393226</v>
+        <v>1.016231398426096</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042858796604532</v>
+        <v>1.042975162021848</v>
       </c>
       <c r="J11">
-        <v>1.018608024833801</v>
+        <v>1.019142185187304</v>
       </c>
       <c r="K11">
-        <v>1.030263751320957</v>
+        <v>1.030495579844258</v>
       </c>
       <c r="L11">
-        <v>1.021999970704954</v>
+        <v>1.022455701158699</v>
       </c>
       <c r="M11">
-        <v>1.030485575803943</v>
+        <v>1.030853571375675</v>
       </c>
       <c r="N11">
-        <v>1.010003346125281</v>
+        <v>1.012634013078014</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032539074600115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032718649338368</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020567645711597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9877577044903387</v>
+        <v>0.9883897038189253</v>
       </c>
       <c r="D12">
-        <v>1.014961385600412</v>
+        <v>1.015271189114186</v>
       </c>
       <c r="E12">
-        <v>1.006423108646948</v>
+        <v>1.006954764414742</v>
       </c>
       <c r="F12">
-        <v>1.015023003088485</v>
+        <v>1.015469947817673</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042677078264209</v>
+        <v>1.042825042071244</v>
       </c>
       <c r="J12">
-        <v>1.018089371697086</v>
+        <v>1.018693691888508</v>
       </c>
       <c r="K12">
-        <v>1.029807454821213</v>
+        <v>1.030111551086283</v>
       </c>
       <c r="L12">
-        <v>1.021428278017317</v>
+        <v>1.021949924147429</v>
       </c>
       <c r="M12">
-        <v>1.029867936820618</v>
+        <v>1.030306650615186</v>
       </c>
       <c r="N12">
-        <v>1.009827084593399</v>
+        <v>1.012615000994964</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032216456144445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032447132694166</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020488128671475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9879717864205895</v>
+        <v>0.9885877512684407</v>
       </c>
       <c r="D13">
-        <v>1.015103499013696</v>
+        <v>1.015397348641232</v>
       </c>
       <c r="E13">
-        <v>1.006591458693395</v>
+        <v>1.007108504970617</v>
       </c>
       <c r="F13">
-        <v>1.015200623802029</v>
+        <v>1.015631925633968</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042715428600118</v>
+        <v>1.042856554746697</v>
       </c>
       <c r="J13">
-        <v>1.018199553217432</v>
+        <v>1.018788656193171</v>
       </c>
       <c r="K13">
-        <v>1.029903867343727</v>
+        <v>1.030192323598476</v>
       </c>
       <c r="L13">
-        <v>1.02154984350014</v>
+        <v>1.022057191903991</v>
       </c>
       <c r="M13">
-        <v>1.029999209034994</v>
+        <v>1.030422598037269</v>
       </c>
       <c r="N13">
-        <v>1.009864406185982</v>
+        <v>1.012617966616304</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032282121520649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032501496793527</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020504693235514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9886768178025938</v>
+        <v>0.9892409552384046</v>
       </c>
       <c r="D14">
-        <v>1.015574763527703</v>
+        <v>1.015816890139369</v>
       </c>
       <c r="E14">
-        <v>1.007147091691235</v>
+        <v>1.00761689793507</v>
       </c>
       <c r="F14">
-        <v>1.015787212062632</v>
+        <v>1.016167876339326</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04284351057782</v>
+        <v>1.042962459228811</v>
       </c>
       <c r="J14">
-        <v>1.018564700363076</v>
+        <v>1.019104580059158</v>
       </c>
       <c r="K14">
-        <v>1.030225412452648</v>
+        <v>1.030463148865322</v>
       </c>
       <c r="L14">
-        <v>1.021952265085516</v>
+        <v>1.022413368557678</v>
       </c>
       <c r="M14">
-        <v>1.030434008760095</v>
+        <v>1.030807775873382</v>
       </c>
       <c r="N14">
-        <v>1.009988570231996</v>
+        <v>1.012631940220523</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032510895878851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032694544506435</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020560861989622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9891126579031657</v>
+        <v>0.9896455093590014</v>
       </c>
       <c r="D15">
-        <v>1.015867803595472</v>
+        <v>1.016078565467544</v>
       </c>
       <c r="E15">
-        <v>1.007491256086333</v>
+        <v>1.007932531122649</v>
       </c>
       <c r="F15">
-        <v>1.016150733181232</v>
+        <v>1.016500763097687</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04292353757349</v>
+        <v>1.04302903846661</v>
       </c>
       <c r="J15">
-        <v>1.018791605700537</v>
+        <v>1.019301743944414</v>
       </c>
       <c r="K15">
-        <v>1.030426253624986</v>
+        <v>1.030633222804894</v>
       </c>
       <c r="L15">
-        <v>1.022202117283991</v>
+        <v>1.022635280983972</v>
       </c>
       <c r="M15">
-        <v>1.030704092319373</v>
+        <v>1.031047829071139</v>
       </c>
       <c r="N15">
-        <v>1.010065968493656</v>
+        <v>1.012643522727299</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03265879062867</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032821253125848</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02059645331802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9916139083115717</v>
+        <v>0.9919786886183518</v>
       </c>
       <c r="D16">
-        <v>1.017541352858448</v>
+        <v>1.017580541520235</v>
       </c>
       <c r="E16">
-        <v>1.009466011671306</v>
+        <v>1.009753753245803</v>
       </c>
       <c r="F16">
-        <v>1.018235180371188</v>
+        <v>1.018419263985081</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.0433728954528</v>
+        <v>1.043405114240532</v>
       </c>
       <c r="J16">
-        <v>1.020086380655403</v>
+        <v>1.020436393690187</v>
       </c>
       <c r="K16">
-        <v>1.03156518488037</v>
+        <v>1.031603699191683</v>
       </c>
       <c r="L16">
-        <v>1.023630250134378</v>
+        <v>1.02391293872762</v>
       </c>
       <c r="M16">
-        <v>1.032247083073646</v>
+        <v>1.032428005173642</v>
       </c>
       <c r="N16">
-        <v>1.010506059651419</v>
+        <v>1.012742543109716</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033467237436216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033510890654075</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020797561922292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9931670111539945</v>
+        <v>0.9934389822055409</v>
       </c>
       <c r="D17">
-        <v>1.018582077550845</v>
+        <v>1.018523295399104</v>
       </c>
       <c r="E17">
-        <v>1.010694577881167</v>
+        <v>1.01089719997004</v>
       </c>
       <c r="F17">
-        <v>1.019531850510747</v>
+        <v>1.019622789909691</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04364905904809</v>
+        <v>1.043639604878634</v>
       </c>
       <c r="J17">
-        <v>1.02089032733165</v>
+        <v>1.021151646608888</v>
       </c>
       <c r="K17">
-        <v>1.032271955604687</v>
+        <v>1.032214156297704</v>
       </c>
       <c r="L17">
-        <v>1.024517655275436</v>
+        <v>1.024716822009008</v>
       </c>
       <c r="M17">
-        <v>1.033205868482998</v>
+        <v>1.033295291298664</v>
       </c>
       <c r="N17">
-        <v>1.010779294044662</v>
+        <v>1.012841319597698</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033969547710869</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03394534735891</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020924120938706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9940602958783031</v>
+        <v>0.9942833241455862</v>
       </c>
       <c r="D18">
-        <v>1.019176971101963</v>
+        <v>1.019064993844706</v>
       </c>
       <c r="E18">
-        <v>1.01140075002252</v>
+        <v>1.011558320427376</v>
       </c>
       <c r="F18">
-        <v>1.020276577268815</v>
+        <v>1.020317681871924</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043804021591524</v>
+        <v>1.043772029936748</v>
       </c>
       <c r="J18">
-        <v>1.021349591465403</v>
+        <v>1.021564053936266</v>
       </c>
       <c r="K18">
-        <v>1.032672696408035</v>
+        <v>1.032562559859143</v>
       </c>
       <c r="L18">
-        <v>1.025025551256477</v>
+        <v>1.025180480791109</v>
       </c>
       <c r="M18">
-        <v>1.033754254589131</v>
+        <v>1.033794685506547</v>
       </c>
       <c r="N18">
-        <v>1.010934747326842</v>
+        <v>1.012911199400193</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034241214011139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03417887271688</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020995534044624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.994369376089964</v>
+        <v>0.9945762983152432</v>
       </c>
       <c r="D19">
-        <v>1.019386188727714</v>
+        <v>1.019256486658955</v>
       </c>
       <c r="E19">
-        <v>1.011646230582875</v>
+        <v>1.011788945120582</v>
       </c>
       <c r="F19">
-        <v>1.020535873163148</v>
+        <v>1.020560465025054</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043859672099622</v>
+        <v>1.043820162082196</v>
       </c>
       <c r="J19">
-        <v>1.021510920151568</v>
+        <v>1.021709948459291</v>
       </c>
       <c r="K19">
-        <v>1.032815680705256</v>
+        <v>1.03268809825405</v>
       </c>
       <c r="L19">
-        <v>1.025203436182548</v>
+        <v>1.025343773075093</v>
       </c>
       <c r="M19">
-        <v>1.033946607027005</v>
+        <v>1.033970798244204</v>
       </c>
       <c r="N19">
-        <v>1.010989842676972</v>
+        <v>1.012939295238372</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034348720239816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034274664710638</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021021941340372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9930004123261248</v>
+        <v>0.9932818706747166</v>
       </c>
       <c r="D20">
-        <v>1.018470055239028</v>
+        <v>1.018421430914104</v>
       </c>
       <c r="E20">
-        <v>1.010562603473143</v>
+        <v>1.01077394314863</v>
       </c>
       <c r="F20">
-        <v>1.019392523928174</v>
+        <v>1.019493053368598</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043619322986193</v>
+        <v>1.043614184971778</v>
       </c>
       <c r="J20">
-        <v>1.020803848609662</v>
+        <v>1.021074244085028</v>
       </c>
       <c r="K20">
-        <v>1.032195724059936</v>
+        <v>1.032147915274133</v>
       </c>
       <c r="L20">
-        <v>1.024422230627901</v>
+        <v>1.024629954825966</v>
       </c>
       <c r="M20">
-        <v>1.03310273987258</v>
+        <v>1.033201587456308</v>
       </c>
       <c r="N20">
-        <v>1.010749854893239</v>
+        <v>1.012829073026535</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033914309628369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033897044049899</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020910319266933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9884770109507715</v>
+        <v>0.9890750245696662</v>
       </c>
       <c r="D21">
-        <v>1.01544565319775</v>
+        <v>1.01571673040603</v>
       </c>
       <c r="E21">
-        <v>1.006990986880802</v>
+        <v>1.007491225326465</v>
       </c>
       <c r="F21">
-        <v>1.01562295306541</v>
+        <v>1.016034414908275</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042810241116515</v>
+        <v>1.04294185755548</v>
       </c>
       <c r="J21">
-        <v>1.018464530635727</v>
+        <v>1.019036723998965</v>
       </c>
       <c r="K21">
-        <v>1.030140194694309</v>
+        <v>1.03040633926107</v>
       </c>
       <c r="L21">
-        <v>1.021841112366397</v>
+        <v>1.022332050551308</v>
       </c>
       <c r="M21">
-        <v>1.030314267947049</v>
+        <v>1.030718247392981</v>
       </c>
       <c r="N21">
-        <v>1.009955199378777</v>
+        <v>1.012696037084055</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032464204120232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032669249064757</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020551300031591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9855703759572304</v>
+        <v>0.9863718001190867</v>
       </c>
       <c r="D22">
-        <v>1.013502026271246</v>
+        <v>1.013979096938192</v>
       </c>
       <c r="E22">
-        <v>1.004702260725762</v>
+        <v>1.00538826058885</v>
       </c>
       <c r="F22">
-        <v>1.013206236504241</v>
+        <v>1.013817965575907</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042277293126435</v>
+        <v>1.042497179882977</v>
       </c>
       <c r="J22">
-        <v>1.016957229318472</v>
+        <v>1.017722025282964</v>
       </c>
       <c r="K22">
-        <v>1.028810668230375</v>
+        <v>1.029278620294912</v>
       </c>
       <c r="L22">
-        <v>1.020181136935964</v>
+        <v>1.020853725413847</v>
       </c>
       <c r="M22">
-        <v>1.028520537754873</v>
+        <v>1.029120567498903</v>
       </c>
       <c r="N22">
-        <v>1.009442230710336</v>
+        <v>1.012598180853683</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031510617154206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031857055207319</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020315496595203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9871073684665589</v>
+        <v>0.9877885328464349</v>
       </c>
       <c r="D23">
-        <v>1.014523916435055</v>
+        <v>1.014882424617342</v>
       </c>
       <c r="E23">
-        <v>1.005910049602637</v>
+        <v>1.006486505594853</v>
       </c>
       <c r="F23">
-        <v>1.014480970666506</v>
+        <v>1.01497580654428</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042556409437075</v>
+        <v>1.042725318746295</v>
       </c>
       <c r="J23">
-        <v>1.01775029177842</v>
+        <v>1.018401241675186</v>
       </c>
       <c r="K23">
-        <v>1.029506760837212</v>
+        <v>1.029858591392179</v>
       </c>
       <c r="L23">
-        <v>1.021055209318287</v>
+        <v>1.021620689414345</v>
       </c>
       <c r="M23">
-        <v>1.029464615396037</v>
+        <v>1.029950234983591</v>
       </c>
       <c r="N23">
-        <v>1.009711305684724</v>
+        <v>1.012605089683223</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031993119569704</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032256511452966</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020435043571486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9930609127466948</v>
+        <v>0.9933387838793957</v>
       </c>
       <c r="D24">
-        <v>1.018501874448026</v>
+        <v>1.01844925137172</v>
       </c>
       <c r="E24">
-        <v>1.010607824153381</v>
+        <v>1.010815865538014</v>
       </c>
       <c r="F24">
-        <v>1.019439139765828</v>
+        <v>1.019535991684125</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043624175334131</v>
+        <v>1.043617395282978</v>
       </c>
       <c r="J24">
-        <v>1.020828718772888</v>
+        <v>1.021095685222863</v>
       </c>
       <c r="K24">
-        <v>1.032211684449365</v>
+        <v>1.032159942781751</v>
       </c>
       <c r="L24">
-        <v>1.024451180651813</v>
+        <v>1.02465566795503</v>
       </c>
       <c r="M24">
-        <v>1.033133270711256</v>
+        <v>1.033228504558399</v>
       </c>
       <c r="N24">
-        <v>1.010757007841955</v>
+        <v>1.012829875650017</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033898117192289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033875401473598</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020911062463699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9997507253776815</v>
+        <v>0.9997451015591557</v>
       </c>
       <c r="D25">
-        <v>1.022991754862798</v>
+        <v>1.022601553088639</v>
       </c>
       <c r="E25">
-        <v>1.015918722250576</v>
+        <v>1.015862349866883</v>
       </c>
       <c r="F25">
-        <v>1.025042283267101</v>
+        <v>1.024836270374518</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044782998315954</v>
+        <v>1.044634154460331</v>
       </c>
       <c r="J25">
-        <v>1.024286481521254</v>
+        <v>1.024281047099607</v>
       </c>
       <c r="K25">
-        <v>1.035243337998634</v>
+        <v>1.034858855637657</v>
       </c>
       <c r="L25">
-        <v>1.028274846183926</v>
+        <v>1.028219314431631</v>
       </c>
       <c r="M25">
-        <v>1.037263901406203</v>
+        <v>1.037060892169088</v>
       </c>
       <c r="N25">
-        <v>1.011931120197537</v>
+        <v>1.013642156607431</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036038791611029</v>
+        <v>1.035780497703272</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02147003987905</v>
       </c>
     </row>
   </sheetData>
